--- a/doc/04_その他/PlusDojo6月作成ドキュメントテンプレート/04_テスト仕様書_テスト結果報告書_チーム名.xlsx
+++ b/doc/04_その他/PlusDojo6月作成ドキュメントテンプレート/04_テスト仕様書_テスト結果報告書_チーム名.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NextCloud\内部共有用\04_取引案件別\19_SEプラス\2024_Dojo\6月\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A3\doc\04_その他\PlusDojo6月作成ドキュメントテンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA10E901-400F-4EA7-9F7E-93F0FDF7CD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F660B5-3772-4E84-802A-ED8649504EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10520" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="59">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="1"/>
@@ -127,6 +127,479 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力値</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDを空、パスワードを有効なものにしてログインを実行。</t>
+    <rPh sb="3" eb="4">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力値エラー</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDを有効なもの、パスワードを空にしてログインを実行。</t>
+    <rPh sb="3" eb="5">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDとパスワードを空にしてログインを実行。</t>
+    <rPh sb="9" eb="10">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDとパスワードをそれぞれ有効なものにしてログインを実行。</t>
+    <rPh sb="13" eb="15">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧検索画面に遷移する。</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記号</t>
+    <rPh sb="0" eb="2">
+      <t>キゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDにシングルクォーテーションを入力してログインを実行。</t>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDに;を入力してログインを実行。</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDに&lt;を入力してログインを実行。</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDに&gt;を入力してログインを実行。</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードにシングルクォーテーションを入力してログインを実行。</t>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードに;を入力してログインを実行。</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードに&lt;を入力してログインを実行。</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードに&gt;を入力してログインを実行。</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「山」で検索する場合、名前に「山」を含むデータは住所と会社名には「山」を含めないことに注意する。</t>
+    <rPh sb="1" eb="2">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>カイシャメイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（家族垢）IDとパスワードをそれぞれ有効なものにしてログインを実行。（個人垢）NULL入力</t>
+    <rPh sb="1" eb="3">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20回以上パソワード・ID 入力間違い</t>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垢ロック</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24時間ロック</t>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人IDを空にして新規登録を実行</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家族IDを空にして新規登録を実行</t>
+    <rPh sb="0" eb="2">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人パスワードを空にして新規登録を実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家族パスワードを空にして新規登録を実行</t>
+    <rPh sb="0" eb="2">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Emailアドレスに＠がない場合</t>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Emailアドレスに全角文字が入っていると会員登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードが20文字以上で会員登録</t>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードが８文字以内で会員登録</t>
+    <rPh sb="9" eb="11">
+      <t>イナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコン画像なしの新規登録</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録できる</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家族登録</t>
+    <rPh sb="0" eb="2">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人名空で有効なパスワード</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードが20文字以上で家族登録</t>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードが８文字以内で家族登録</t>
+    <rPh sb="9" eb="11">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードが8文字以上20文字以内の大文字を一文字以上含む半角英数字を入力してください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力値エラー（メモ：大文字でなく、ナンバリングを入力　でできる）</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコン画像なしで家族登録</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録できる</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDがスペース入力で家族登録</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家族IDにスペースを入力してログインを実行。</t>
+    <rPh sb="0" eb="2">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人IDにスペースを入力してログインを実行。</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -186,9 +659,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -469,21 +946,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M35"/>
+  <dimension ref="B2:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="23.875" customWidth="1"/>
-    <col min="6" max="6" width="27.25" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.8984375" customWidth="1"/>
+    <col min="5" max="5" width="23.8984375" customWidth="1"/>
+    <col min="6" max="6" width="27.19921875" customWidth="1"/>
+    <col min="7" max="7" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.25" customWidth="1"/>
+    <col min="11" max="11" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
@@ -524,209 +1002,327 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" ht="36">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="K3" s="3">
+        <v>45469</v>
+      </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:13" ht="36">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B35" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="3">
+        <v>45469</v>
+      </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" ht="36">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="3">
+        <v>45469</v>
+      </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="2:13">
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:13" ht="36">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="3">
+        <v>45469</v>
+      </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="2:13">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:13" ht="54">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="3">
+        <v>45469</v>
+      </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="2:13" ht="36">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="3">
+        <v>45469</v>
+      </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="2:13">
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="2:13" ht="36">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="3">
+        <v>45469</v>
+      </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="2:13">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="2:13" ht="36">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="2:13">
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="2:13" ht="36">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="2:13">
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="2:13" ht="36">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="2:13">
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="2:13" ht="36">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="2:13">
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="2:13" ht="36">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="1">
@@ -735,49 +1331,73 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="2:13">
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="2:13" ht="36">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="2:13">
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="2:13" ht="36">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="1">
@@ -786,49 +1406,73 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="2:13">
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" ht="36">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="2:13">
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="2:13" ht="36">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="2"/>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="1">
@@ -838,169 +1482,225 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="2:13">
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="2:13" ht="36">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="2"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="2:13">
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="2:13" ht="36">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="2"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="3"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="2:13">
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="2:13" ht="36">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="2"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="2:13">
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="2:13" ht="36">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="2"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="3"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="2:13">
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="2:13" ht="54">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="2"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="2:13">
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="2:13" ht="36">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="2"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="2:13">
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="2:13" ht="36">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="2"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" ht="36">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="2"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" ht="36">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="F30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="2"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="2:13">
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="2:13" ht="36">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1008,14 +1708,18 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="M31" s="2"/>
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="1">
@@ -1025,16 +1729,20 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="F32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="2:13">
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="2:13" ht="36">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1042,16 +1750,22 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="F33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="2"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="K33" s="3">
+        <v>45469</v>
+      </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="2:13">
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="2:13" ht="54">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1059,14 +1773,20 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="F34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="2"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="K34" s="3">
+        <v>45469</v>
+      </c>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="M34" s="2"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="1">
@@ -1076,14 +1796,209 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="F35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="3">
+        <v>45469</v>
+      </c>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L39" s="1"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="2:13" ht="90">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/04_その他/PlusDojo6月作成ドキュメントテンプレート/04_テスト仕様書_テスト結果報告書_チーム名.xlsx
+++ b/doc/04_その他/PlusDojo6月作成ドキュメントテンプレート/04_テスト仕様書_テスト結果報告書_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A3\doc\04_その他\PlusDojo6月作成ドキュメントテンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F660B5-3772-4E84-802A-ED8649504EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F48973-6CF6-44C9-AD64-319CEA24585A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="1"/>
@@ -600,6 +600,87 @@
     <t>個人IDにスペースを入力してログインを実行。</t>
     <rPh sb="0" eb="2">
       <t>コジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人情報変更</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULL入力</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人名のみ、NULL</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人パスワードを空</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコンなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更できる</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人名；、：、」,] [ ! ,などの場合</t>
+    <rPh sb="0" eb="3">
+      <t>コジンメイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人パスワードと確認パスワードが一致しない場合</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家族情報変更</t>
+    <rPh sb="0" eb="2">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -946,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M48"/>
+  <dimension ref="B2:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1035,7 +1116,7 @@
     </row>
     <row r="4" spans="2:13" ht="36">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B35" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B67" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1"/>
@@ -1081,9 +1162,7 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="3">
-        <v>45469</v>
-      </c>
+      <c r="K5" s="3"/>
       <c r="L5" s="1"/>
       <c r="M5" s="2"/>
     </row>
@@ -1220,7 +1299,9 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3">
+        <v>45469</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="2"/>
     </row>
@@ -1245,7 +1326,9 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3">
+        <v>45469</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="2"/>
     </row>
@@ -1270,7 +1353,9 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3">
+        <v>45469</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="2"/>
     </row>
@@ -1295,7 +1380,9 @@
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>45469</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="2"/>
     </row>
@@ -1345,7 +1432,9 @@
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3">
+        <v>45469</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="2"/>
     </row>
@@ -1370,7 +1459,9 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3">
+        <v>45469</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="2"/>
     </row>
@@ -1395,7 +1486,9 @@
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3">
+        <v>45469</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="2"/>
     </row>
@@ -1420,7 +1513,9 @@
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="3"/>
+      <c r="K18" s="3">
+        <v>45469</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="2"/>
     </row>
@@ -1445,7 +1540,9 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3">
+        <v>45469</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="2"/>
     </row>
@@ -1470,7 +1567,9 @@
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3">
+        <v>45469</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="2"/>
     </row>
@@ -1487,7 +1586,9 @@
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3">
+        <v>45469</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="2"/>
     </row>
@@ -1509,10 +1610,14 @@
       <c r="G22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3">
+        <v>45469</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="2"/>
     </row>
@@ -1532,7 +1637,9 @@
       <c r="G23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="3"/>
@@ -1555,10 +1662,14 @@
       <c r="G24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="3"/>
+      <c r="K24" s="3">
+        <v>45469</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="2"/>
     </row>
@@ -1578,10 +1689,14 @@
       <c r="G25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="3"/>
+      <c r="K25" s="3">
+        <v>45469</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="2"/>
     </row>
@@ -1601,10 +1716,14 @@
       <c r="G26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="3"/>
+      <c r="K26" s="3">
+        <v>45469</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="2"/>
     </row>
@@ -1624,10 +1743,14 @@
       <c r="G27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="3"/>
+      <c r="K27" s="3">
+        <v>45469</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="2"/>
     </row>
@@ -1647,10 +1770,14 @@
       <c r="G28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="3"/>
+      <c r="K28" s="3">
+        <v>45469</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
@@ -1670,10 +1797,14 @@
       <c r="G29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="3"/>
+      <c r="K29" s="3">
+        <v>45469</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
@@ -1693,10 +1824,14 @@
       <c r="G30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="3"/>
+      <c r="K30" s="3">
+        <v>45469</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="2"/>
     </row>
@@ -1714,10 +1849,14 @@
       <c r="G31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="3">
+        <v>45469</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="2"/>
     </row>
@@ -1735,10 +1874,12 @@
       <c r="G32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="1"/>
       <c r="M32" s="2"/>
     </row>
@@ -1814,6 +1955,10 @@
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="2:13">
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1835,12 +1980,24 @@
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="2:13">
-      <c r="C37" s="1"/>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="3">
@@ -1850,12 +2007,22 @@
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="2:13">
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="3">
@@ -1865,12 +2032,22 @@
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="2:13">
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="3">
@@ -1880,12 +2057,22 @@
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="2:13">
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="3">
@@ -1894,26 +2081,46 @@
       <c r="L40" s="1"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" ht="36">
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="3"/>
       <c r="L41" s="1"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" ht="36">
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="3"/>
@@ -1921,12 +2128,24 @@
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="C43" s="1"/>
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="3"/>
@@ -1934,12 +2153,22 @@
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="2:13">
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="3"/>
@@ -1947,12 +2176,22 @@
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="2:13">
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="3"/>
@@ -1960,25 +2199,45 @@
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="2:13">
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="3"/>
       <c r="L46" s="1"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="2:13" ht="90">
+    <row r="47" spans="2:13" ht="35.4" customHeight="1">
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="3"/>
@@ -1987,19 +2246,365 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" ht="36">
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="3"/>
       <c r="L48" s="1"/>
       <c r="M48" s="2"/>
     </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="1">
+        <f t="shared" ref="B68:B104" si="1">ROW()-2</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="1">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="1">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="1">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="1">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="1">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="1">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="1">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="1">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="1">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="1">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="1">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="1">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="1">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="1">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="1">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="1">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="1">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="1">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="1">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="1">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/04_その他/PlusDojo6月作成ドキュメントテンプレート/04_テスト仕様書_テスト結果報告書_チーム名.xlsx
+++ b/doc/04_その他/PlusDojo6月作成ドキュメントテンプレート/04_テスト仕様書_テスト結果報告書_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A3\doc\04_その他\PlusDojo6月作成ドキュメントテンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F48973-6CF6-44C9-AD64-319CEA24585A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB48B8C-F292-4F48-9B52-100EAD9A64A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="103">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="1"/>
@@ -682,6 +682,368 @@
     <rPh sb="4" eb="6">
       <t>ヘンコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人名；の場合</t>
+    <rPh sb="0" eb="3">
+      <t>コジンメイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人名、を入力された場合</t>
+    <rPh sb="0" eb="3">
+      <t>コジンメイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人名・を入力された場合</t>
+    <rPh sb="0" eb="3">
+      <t>コジンメイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人名日本語の場合</t>
+    <rPh sb="0" eb="3">
+      <t>コジンメイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人名！などの場合</t>
+    <rPh sb="0" eb="3">
+      <t>コジンメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人名｛などの場合</t>
+    <rPh sb="0" eb="3">
+      <t>コジンメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人名｝などの場合</t>
+    <rPh sb="0" eb="3">
+      <t>コジンメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人名番号（１２３）などの場合</t>
+    <rPh sb="0" eb="3">
+      <t>コジンメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力できる</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やることリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事登録</t>
+    <rPh sb="0" eb="2">
+      <t>カジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事名にNULLの場合</t>
+    <rPh sb="0" eb="3">
+      <t>カジメイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事名に半角スペースの場合</t>
+    <rPh sb="0" eb="3">
+      <t>カジメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメ　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモにNULL の場合</t>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ選択しない場合</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事名に日本語入力場合</t>
+    <rPh sb="0" eb="3">
+      <t>カジメイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事分担の登録画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付をクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録済みのイベントをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分担編集・削除</t>
+    <rPh sb="0" eb="2">
+      <t>ブンタン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除できたが、手間がかかる（一つ削除するために、繰り返し・繰り返さないを選択（繰り返しを選択）、その後いつまでを選択、最後は曜日を選ばないといけない）</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テマ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集ボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者編集</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつまで編集</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目編集</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Month Week クリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>形式変更</t>
+    <rPh sb="0" eb="2">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weel形式の時、時間を押す場合</t>
+    <rPh sb="4" eb="6">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -713,7 +1075,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -736,17 +1098,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1027,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M104"/>
+  <dimension ref="B2:M1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="C59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2230,7 +2607,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>16</v>
@@ -2246,7 +2623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="36">
+    <row r="48" spans="2:13">
       <c r="B48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2255,13 +2632,13 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2269,193 +2646,460 @@
       <c r="L48" s="1"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:8">
       <c r="B49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="2:2">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
       <c r="B50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="2:2">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
       <c r="B51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="2:2">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
       <c r="B52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="2:2">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
       <c r="B53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="2:2">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="36">
       <c r="B54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="2:2">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="36">
       <c r="B55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="2:2">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
       <c r="B56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="2:2">
+      <c r="C56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
       <c r="B57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="2:2">
+      <c r="C57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
       <c r="B58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="2:2">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
       <c r="B59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="2:2">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
       <c r="B60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="2:2">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
       <c r="B61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="2:2">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
       <c r="B62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="2:2">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
       <c r="B63" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="2:2">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
       <c r="B64" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="2:2">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13">
       <c r="B65" s="1">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="2:2">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13">
       <c r="B66" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="2:2">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13">
       <c r="B67" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="2:2">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13">
       <c r="B68" s="1">
         <f t="shared" ref="B68:B104" si="1">ROW()-2</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="2:2">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13">
       <c r="B69" s="1">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="2:2">
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13">
       <c r="B70" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:13">
       <c r="B71" s="1">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:13">
       <c r="B72" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:13">
       <c r="B73" s="1">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:13">
       <c r="B74" s="1">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:13">
       <c r="B75" s="1">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:13">
       <c r="B76" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:13">
       <c r="B77" s="1">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:13">
       <c r="B78" s="1">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:13">
       <c r="B79" s="1">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:13">
       <c r="B80" s="1">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -2604,6 +3248,9 @@
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
+    </row>
+    <row r="1048576" spans="6:6">
+      <c r="F1048576" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/04_その他/PlusDojo6月作成ドキュメントテンプレート/04_テスト仕様書_テスト結果報告書_チーム名.xlsx
+++ b/doc/04_その他/PlusDojo6月作成ドキュメントテンプレート/04_テスト仕様書_テスト結果報告書_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A3\doc\04_その他\PlusDojo6月作成ドキュメントテンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB48B8C-F292-4F48-9B52-100EAD9A64A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36A8053-8C8B-4FF0-BC93-CF3D45A52F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="143">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="1"/>
@@ -306,43 +306,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「山」で検索する場合、名前に「山」を含むデータは住所と会社名には「山」を含めないことに注意する。</t>
-    <rPh sb="1" eb="2">
-      <t>ヤマ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヤマ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>カイシャメイ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ヤマ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（家族垢）IDとパスワードをそれぞれ有効なものにしてログインを実行。（個人垢）NULL入力</t>
     <rPh sb="1" eb="3">
       <t>カゾク</t>
@@ -1044,6 +1007,344 @@
   </si>
   <si>
     <t>エラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引継ぎノート</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルをNULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引継ぎ事項をNULL</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真アプロードしない</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真1枚アプロード</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真2枚アプロード</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル・引継ぎ事項をNULL</t>
+    <rPh sb="5" eb="7">
+      <t>ヒキツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルのみ更新</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新できる</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引き続き事項のみ更新</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除をクリック</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除できる</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXXX年XX月クリック</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真を表示</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真のチェックをクリック→削除</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真を削除</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真の複数チェックをクリック→削除</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご褒美</t>
+    <rPh sb="1" eb="3">
+      <t>ホウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご褒美名をNULL</t>
+    <rPh sb="1" eb="3">
+      <t>ホウビ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご褒美ポイントをNULL</t>
+    <rPh sb="1" eb="3">
+      <t>ホウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご褒美対象を選ばない場合</t>
+    <rPh sb="1" eb="3">
+      <t>ホウビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力エラー</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイントを足りない場合のリクエスト</t>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストできない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイントを足りる場合のリクエスト</t>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエスト中</t>
+    <rPh sb="5" eb="6">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除クリック</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエスト対応</t>
+    <rPh sb="5" eb="7">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストされたものをチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエスト中をなくなる</t>
+    <rPh sb="5" eb="6">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交換履歴</t>
+    <rPh sb="0" eb="2">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交換履歴をクリック</t>
+    <rPh sb="0" eb="2">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交換履歴画面へ</t>
+    <rPh sb="0" eb="2">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエスト後のポイント</t>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイントを減ろ</t>
+    <rPh sb="5" eb="6">
+      <t>ヘ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1113,17 +1414,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1406,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1581,7 +1881,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>16</v>
@@ -1608,13 +1908,13 @@
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1657,7 +1957,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -1666,7 +1966,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
@@ -1693,7 +1993,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>16</v>
@@ -1720,7 +2020,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
@@ -1747,7 +2047,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>16</v>
@@ -1774,7 +2074,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>16</v>
@@ -1799,7 +2099,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>16</v>
@@ -1826,7 +2126,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>16</v>
@@ -1853,7 +2153,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>16</v>
@@ -1880,10 +2180,10 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>17</v>
@@ -1907,13 +2207,13 @@
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1934,13 +2234,13 @@
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2191,12 +2491,12 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>16</v>
@@ -2221,7 +2521,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>16</v>
@@ -2246,13 +2546,13 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2269,7 +2569,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>16</v>
@@ -2292,10 +2592,10 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="1"/>
@@ -2315,10 +2615,10 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>17</v>
@@ -2340,13 +2640,13 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2362,12 +2662,12 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>16</v>
@@ -2392,7 +2692,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>16</v>
@@ -2417,7 +2717,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>16</v>
@@ -2442,10 +2742,10 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>17</v>
@@ -2467,17 +2767,19 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="3"/>
+      <c r="K41" s="3">
+        <v>45469</v>
+      </c>
       <c r="L41" s="1"/>
       <c r="M41" s="2"/>
     </row>
@@ -2490,7 +2792,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>16</v>
@@ -2500,7 +2802,9 @@
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="3"/>
+      <c r="K42" s="3">
+        <v>45469</v>
+      </c>
       <c r="L42" s="1"/>
       <c r="M42" s="2"/>
     </row>
@@ -2510,12 +2814,12 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>16</v>
@@ -2525,7 +2829,9 @@
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="3"/>
+      <c r="K43" s="3">
+        <v>45469</v>
+      </c>
       <c r="L43" s="1"/>
       <c r="M43" s="2"/>
     </row>
@@ -2538,7 +2844,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>16</v>
@@ -2548,7 +2854,9 @@
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="3"/>
+      <c r="K44" s="3">
+        <v>45469</v>
+      </c>
       <c r="L44" s="1"/>
       <c r="M44" s="2"/>
     </row>
@@ -2561,7 +2869,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>16</v>
@@ -2571,7 +2879,9 @@
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="3"/>
+      <c r="K45" s="3">
+        <v>45469</v>
+      </c>
       <c r="L45" s="1"/>
       <c r="M45" s="2"/>
     </row>
@@ -2584,17 +2894,19 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="3"/>
+      <c r="K46" s="3">
+        <v>45469</v>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="2"/>
     </row>
@@ -2607,21 +2919,21 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="3"/>
+      <c r="K47" s="3">
+        <v>45469</v>
+      </c>
       <c r="L47" s="1"/>
-      <c r="M47" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="M47" s="2"/>
     </row>
     <row r="48" spans="2:13">
       <c r="B48" s="1">
@@ -2632,21 +2944,23 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="3"/>
+      <c r="K48" s="3">
+        <v>45469</v>
+      </c>
       <c r="L48" s="1"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:13">
       <c r="B49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2655,16 +2969,23 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
+        <v>55</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="2:13">
       <c r="B50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2673,16 +2994,23 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
+        <v>55</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="2:13">
       <c r="B51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2691,16 +3019,23 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
+        <v>55</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="2:13">
       <c r="B52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2709,16 +3044,23 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
+        <v>55</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="2:13">
       <c r="B53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2727,16 +3069,23 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="36">
+        <v>55</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="2:13" ht="36">
       <c r="B54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2745,16 +3094,23 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="H54" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" ht="36">
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="2:13" ht="36">
       <c r="B55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2763,7 +3119,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>16</v>
@@ -2771,50 +3127,71 @@
       <c r="H55" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="2:8">
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="2:13">
       <c r="B56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" s="1">
-        <f t="shared" si="0"/>
+      <c r="D57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="2:13">
       <c r="B58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2822,17 +3199,24 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8">
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="2:13">
       <c r="B59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2840,17 +3224,24 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8">
+      <c r="F59" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="2:13">
       <c r="B60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2858,17 +3249,24 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="4" t="s">
-        <v>84</v>
+      <c r="F60" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H60" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8">
+      <c r="H60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="2:13">
       <c r="B61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2876,37 +3274,51 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8">
+      <c r="F61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="2:13">
       <c r="B62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
+      <c r="H62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="2:13">
       <c r="B63" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2914,17 +3326,24 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G63" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8">
+      <c r="H63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="2:13">
       <c r="B64" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2932,15 +3351,22 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G64" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="H64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
     </row>
     <row r="65" spans="2:13">
       <c r="B65" s="1">
@@ -2950,17 +3376,23 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M65" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="66" spans="2:13">
@@ -2970,20 +3402,26 @@
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="4" t="s">
+      <c r="G66" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="H66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M66" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="67" spans="2:13">
@@ -2994,15 +3432,22 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G67" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="H67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
     </row>
     <row r="68" spans="2:13">
       <c r="B68" s="1">
@@ -3012,242 +3457,801 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="F68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
     </row>
     <row r="69" spans="2:13">
       <c r="B69" s="1">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
+      <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="F69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
     </row>
     <row r="70" spans="2:13">
       <c r="B70" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
+      <c r="C70" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
     </row>
     <row r="71" spans="2:13">
       <c r="B71" s="1">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
     </row>
     <row r="72" spans="2:13">
       <c r="B72" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="1">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
     </row>
     <row r="74" spans="2:13">
       <c r="B74" s="1">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
     </row>
     <row r="75" spans="2:13">
       <c r="B75" s="1">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
     </row>
     <row r="76" spans="2:13">
       <c r="B76" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
     </row>
     <row r="77" spans="2:13">
       <c r="B77" s="1">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
     </row>
     <row r="78" spans="2:13">
       <c r="B78" s="1">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
     </row>
     <row r="79" spans="2:13">
       <c r="B79" s="1">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="1">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="2:2">
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="2:13">
       <c r="B81" s="1">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="2:2">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" spans="2:13">
       <c r="B82" s="1">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="2:2">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="2:13">
       <c r="B83" s="1">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="2:2">
+      <c r="C83" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="2:13">
       <c r="B84" s="1">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="2:2">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="2:13">
       <c r="B85" s="1">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="2:2">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="2:13">
       <c r="B86" s="1">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="2:2">
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="2:13">
       <c r="B87" s="1">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="2:2">
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="2:13">
       <c r="B88" s="1">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="2:2">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="2:13">
       <c r="B89" s="1">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="2:2">
+      <c r="C89" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D89" t="s">
+        <v>103</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="2:13">
       <c r="B90" s="1">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="2:2">
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="2:13">
       <c r="B91" s="1">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="2:2">
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="2:13">
       <c r="B92" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="2:2">
+      <c r="C92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="2:13">
       <c r="B93" s="1">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="2:2">
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="2:13">
       <c r="B94" s="1">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="2:2">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="2:13">
       <c r="B95" s="1">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="2:2">
+      <c r="C95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+    </row>
+    <row r="96" spans="2:13">
       <c r="B96" s="1">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="2:2">
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+    </row>
+    <row r="97" spans="2:13">
       <c r="B97" s="1">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="2:2">
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="2:13">
       <c r="B98" s="1">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="2:2">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="2:13">
       <c r="B99" s="1">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="2:2">
+      <c r="C99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="2:13">
       <c r="B100" s="1">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="2:2">
+      <c r="C100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="2:13">
       <c r="B101" s="1">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="2:2">
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="2:13">
       <c r="B102" s="1">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="2:2">
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="2:13">
       <c r="B103" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="2:2">
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="2:13">
       <c r="B104" s="1">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
     </row>
     <row r="1048576" spans="6:6">
       <c r="F1048576" s="4"/>

--- a/doc/04_その他/PlusDojo6月作成ドキュメントテンプレート/04_テスト仕様書_テスト結果報告書_チーム名.xlsx
+++ b/doc/04_その他/PlusDojo6月作成ドキュメントテンプレート/04_テスト仕様書_テスト結果報告書_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A3\doc\04_その他\PlusDojo6月作成ドキュメントテンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36A8053-8C8B-4FF0-BC93-CF3D45A52F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407416F3-7DC9-4BDB-95B7-94B0BF796199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="138">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="1"/>
@@ -791,10 +791,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ダメ　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メモにNULL の場合</t>
     <rPh sb="9" eb="11">
       <t>バアイ</t>
@@ -973,20 +969,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Month Week クリック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>形式変更</t>
-    <rPh sb="0" eb="2">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Weel形式の時、時間を押す場合</t>
     <rPh sb="4" eb="6">
       <t>ケイシキ</t>
@@ -1006,10 +988,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エラー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>引継ぎノート</t>
     <rPh sb="0" eb="2">
       <t>ヒキツ</t>
@@ -1147,10 +1125,6 @@
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>だめ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1706,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2494,7 +2468,9 @@
         <v>46</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F30" s="2" t="s">
         <v>48</v>
       </c>
@@ -2519,7 +2495,9 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F31" s="2" t="s">
         <v>49</v>
       </c>
@@ -2544,7 +2522,9 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F32" s="2" t="s">
         <v>47</v>
       </c>
@@ -2567,7 +2547,9 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F33" s="2" t="s">
         <v>49</v>
       </c>
@@ -2590,7 +2572,9 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F34" s="2" t="s">
         <v>50</v>
       </c>
@@ -2613,7 +2597,9 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F35" s="2" t="s">
         <v>52</v>
       </c>
@@ -2638,7 +2624,9 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F36" s="2" t="s">
         <v>54</v>
       </c>
@@ -2665,7 +2653,9 @@
         <v>58</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F37" s="2" t="s">
         <v>59</v>
       </c>
@@ -2690,7 +2680,9 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F38" s="2" t="s">
         <v>60</v>
       </c>
@@ -2715,7 +2707,9 @@
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F39" s="2" t="s">
         <v>61</v>
       </c>
@@ -2740,7 +2734,9 @@
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F40" s="2" t="s">
         <v>62</v>
       </c>
@@ -2765,7 +2761,9 @@
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F41" s="2" t="s">
         <v>64</v>
       </c>
@@ -2773,7 +2771,7 @@
         <v>16</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2790,7 +2788,9 @@
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F42" s="2" t="s">
         <v>65</v>
       </c>
@@ -2817,7 +2817,9 @@
         <v>66</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F43" s="2" t="s">
         <v>59</v>
       </c>
@@ -2842,7 +2844,9 @@
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F44" s="2" t="s">
         <v>60</v>
       </c>
@@ -2867,7 +2871,9 @@
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F45" s="2" t="s">
         <v>61</v>
       </c>
@@ -2892,7 +2898,9 @@
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F46" s="2" t="s">
         <v>62</v>
       </c>
@@ -2917,7 +2925,9 @@
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F47" s="2" t="s">
         <v>67</v>
       </c>
@@ -2925,7 +2935,7 @@
         <v>16</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2942,7 +2952,9 @@
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F48" s="2" t="s">
         <v>68</v>
       </c>
@@ -2950,7 +2962,7 @@
         <v>16</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2967,7 +2979,9 @@
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F49" s="2" t="s">
         <v>69</v>
       </c>
@@ -2975,7 +2989,7 @@
         <v>16</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2992,7 +3006,9 @@
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F50" s="2" t="s">
         <v>70</v>
       </c>
@@ -3000,7 +3016,7 @@
         <v>16</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -3017,7 +3033,9 @@
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F51" s="2" t="s">
         <v>71</v>
       </c>
@@ -3025,7 +3043,7 @@
         <v>16</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -3042,7 +3060,9 @@
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F52" s="2" t="s">
         <v>72</v>
       </c>
@@ -3050,7 +3070,7 @@
         <v>16</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -3067,7 +3087,9 @@
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F53" s="2" t="s">
         <v>73</v>
       </c>
@@ -3075,7 +3097,7 @@
         <v>16</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -3092,7 +3114,9 @@
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F54" s="2" t="s">
         <v>74</v>
       </c>
@@ -3117,7 +3141,9 @@
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F55" s="2" t="s">
         <v>65</v>
       </c>
@@ -3144,7 +3170,9 @@
         <v>76</v>
       </c>
       <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F56" s="1" t="s">
         <v>76</v>
       </c>
@@ -3173,7 +3201,9 @@
       <c r="D57" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F57" s="2" t="s">
         <v>79</v>
       </c>
@@ -3181,7 +3211,7 @@
         <v>16</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -3198,7 +3228,9 @@
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F58" s="2" t="s">
         <v>80</v>
       </c>
@@ -3206,7 +3238,7 @@
         <v>16</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -3223,9 +3255,11 @@
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>53</v>
@@ -3248,9 +3282,11 @@
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>16</v>
@@ -3273,9 +3309,11 @@
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>53</v>
@@ -3298,14 +3336,16 @@
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>17</v>
@@ -3325,12 +3365,14 @@
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>17</v>
@@ -3351,20 +3393,12 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="2"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="3">
-        <v>45469</v>
-      </c>
+      <c r="K64" s="3"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
@@ -3375,25 +3409,19 @@
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="2"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="3">
-        <v>45469</v>
-      </c>
+      <c r="K65" s="3"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="M65" s="1"/>
     </row>
     <row r="66" spans="2:13">
       <c r="B66" s="1">
@@ -3402,14 +3430,16 @@
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>17</v>
@@ -3417,11 +3447,11 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="3">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="2:13">
@@ -3431,12 +3461,14 @@
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>17</v>
@@ -3444,7 +3476,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="3">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -3456,12 +3488,14 @@
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F68" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>17</v>
@@ -3469,7 +3503,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="3">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -3481,12 +3515,14 @@
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F69" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>17</v>
@@ -3494,7 +3530,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="3">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -3505,14 +3541,16 @@
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E70" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F70" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>16</v>
@@ -3523,7 +3561,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="3">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -3535,9 +3573,11 @@
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F71" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>16</v>
@@ -3548,7 +3588,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="3">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -3560,9 +3600,11 @@
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F72" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>53</v>
@@ -3573,7 +3615,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="3">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -3585,9 +3627,11 @@
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F73" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>53</v>
@@ -3598,7 +3642,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="3">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -3610,9 +3654,11 @@
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F74" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>53</v>
@@ -3623,7 +3669,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="3">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -3635,9 +3681,11 @@
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F75" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>16</v>
@@ -3648,7 +3696,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="3">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -3660,14 +3708,16 @@
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E76" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F76" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>17</v>
@@ -3675,7 +3725,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="3">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
@@ -3687,12 +3737,14 @@
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F77" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>17</v>
@@ -3700,7 +3752,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="3">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -3712,12 +3764,14 @@
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="E78" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F78" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>17</v>
@@ -3725,7 +3779,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="3">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -3804,21 +3858,25 @@
         <v>81</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E83" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F83" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
+      <c r="K83" s="3">
+        <v>45470</v>
+      </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
     </row>
@@ -3829,19 +3887,23 @@
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="E84" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F84" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
+      <c r="K84" s="3">
+        <v>45470</v>
+      </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
@@ -3852,19 +3914,23 @@
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
+      <c r="E85" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F85" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
+      <c r="K85" s="3">
+        <v>45470</v>
+      </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
     </row>
@@ -3925,22 +3991,28 @@
         <v>87</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D89" t="s">
-        <v>103</v>
-      </c>
-      <c r="E89" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F89" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H89" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
+      <c r="K89" s="3">
+        <v>45470</v>
+      </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
     </row>
@@ -3951,17 +4023,23 @@
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F90" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H90" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
+      <c r="K90" s="3">
+        <v>45470</v>
+      </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
     </row>
@@ -3972,17 +4050,23 @@
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F91" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H91" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
+      <c r="K91" s="3">
+        <v>45470</v>
+      </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
     </row>
@@ -3993,19 +4077,25 @@
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E92" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F92" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H92" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
+      <c r="K92" s="3">
+        <v>45470</v>
+      </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
     </row>
@@ -4016,17 +4106,23 @@
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F93" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H93" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
+      <c r="K93" s="3">
+        <v>45470</v>
+      </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
     </row>
@@ -4037,17 +4133,23 @@
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F94" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H94" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
+      <c r="K94" s="3">
+        <v>45470</v>
+      </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
     </row>
@@ -4058,19 +4160,25 @@
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E95" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F95" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H95" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
+      <c r="K95" s="3">
+        <v>45470</v>
+      </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
     </row>
@@ -4081,17 +4189,23 @@
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+      <c r="E96" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F96" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H96" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
+      <c r="K96" s="3">
+        <v>45470</v>
+      </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
     </row>
@@ -4102,17 +4216,23 @@
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F97" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H97" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
+      <c r="K97" s="3">
+        <v>45470</v>
+      </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
     </row>
@@ -4123,19 +4243,25 @@
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E98" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F98" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H98" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
+      <c r="K98" s="3">
+        <v>45470</v>
+      </c>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
     </row>
@@ -4146,19 +4272,25 @@
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E99" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F99" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H99" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
+      <c r="K99" s="3">
+        <v>45470</v>
+      </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
     </row>
@@ -4169,19 +4301,25 @@
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E100" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F100" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H100" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
+      <c r="K100" s="3">
+        <v>45470</v>
+      </c>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
     </row>

--- a/doc/04_その他/PlusDojo6月作成ドキュメントテンプレート/04_テスト仕様書_テスト結果報告書_チーム名.xlsx
+++ b/doc/04_その他/PlusDojo6月作成ドキュメントテンプレート/04_テスト仕様書_テスト結果報告書_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A3\doc\04_その他\PlusDojo6月作成ドキュメントテンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407416F3-7DC9-4BDB-95B7-94B0BF796199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9434893E-4EDF-40B4-8436-F88F745D7B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="138">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="1"/>
@@ -543,10 +543,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ダメ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>家族IDにスペースを入力してログインを実行。</t>
     <rPh sb="0" eb="2">
       <t>カゾク</t>
@@ -969,25 +965,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Weel形式の時、時間を押す場合</t>
-    <rPh sb="4" eb="6">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>引継ぎノート</t>
     <rPh sb="0" eb="2">
       <t>ヒキツ</t>
@@ -1318,6 +1295,17 @@
     <t>ポイントを減ろ</t>
     <rPh sb="5" eb="6">
       <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カルフィン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最新版</t>
+    <rPh sb="0" eb="3">
+      <t>サイシンバン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1680,8 +1668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1758,11 +1746,15 @@
         <v>17</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K3" s="3">
         <v>45469</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="36">
@@ -1785,11 +1777,15 @@
         <v>17</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K4" s="3">
         <v>45469</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="36">
@@ -1812,9 +1808,15 @@
         <v>17</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="36">
@@ -1837,11 +1839,15 @@
         <v>17</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K6" s="3">
         <v>45469</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="54">
@@ -1864,11 +1870,15 @@
         <v>17</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K7" s="3">
         <v>45469</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="36">
@@ -1891,11 +1901,15 @@
         <v>34</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K8" s="3">
         <v>45469</v>
       </c>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="36">
@@ -1918,11 +1932,15 @@
         <v>17</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K9" s="3">
         <v>45469</v>
       </c>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="36">
@@ -1949,11 +1967,15 @@
         <v>17</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K10" s="3">
         <v>45469</v>
       </c>
-      <c r="L10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" ht="36">
@@ -1976,11 +1998,15 @@
         <v>17</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K11" s="3">
         <v>45469</v>
       </c>
-      <c r="L11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" ht="36">
@@ -2003,11 +2029,15 @@
         <v>17</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K12" s="3">
         <v>45469</v>
       </c>
-      <c r="L12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" ht="36">
@@ -2030,11 +2060,15 @@
         <v>17</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K13" s="3">
         <v>45469</v>
       </c>
-      <c r="L13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="36">
@@ -2057,9 +2091,13 @@
         <v>17</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K14" s="3"/>
-      <c r="L14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13">
@@ -2082,11 +2120,15 @@
         <v>17</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K15" s="3">
         <v>45469</v>
       </c>
-      <c r="L15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:13" ht="36">
@@ -2109,11 +2151,15 @@
         <v>17</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K16" s="3">
         <v>45469</v>
       </c>
-      <c r="L16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" ht="36">
@@ -2136,11 +2182,15 @@
         <v>17</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K17" s="3">
         <v>45469</v>
       </c>
-      <c r="L17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13">
@@ -2163,11 +2213,15 @@
         <v>17</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K18" s="3">
         <v>45469</v>
       </c>
-      <c r="L18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13" ht="36">
@@ -2181,20 +2235,24 @@
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K19" s="3">
         <v>45469</v>
       </c>
-      <c r="L19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13" ht="36">
@@ -2208,20 +2266,24 @@
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K20" s="3">
         <v>45469</v>
       </c>
-      <c r="L20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="2:13">
@@ -2236,11 +2298,15 @@
       <c r="G21" s="1"/>
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K21" s="3">
         <v>45469</v>
       </c>
-      <c r="L21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13" ht="36">
@@ -2265,11 +2331,15 @@
         <v>17</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K22" s="3">
         <v>45469</v>
       </c>
-      <c r="L22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13" ht="36">
@@ -2292,9 +2362,15 @@
         <v>17</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="36">
@@ -2317,11 +2393,15 @@
         <v>17</v>
       </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K24" s="3">
         <v>45469</v>
       </c>
-      <c r="L24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="36">
@@ -2344,11 +2424,15 @@
         <v>17</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K25" s="3">
         <v>45469</v>
       </c>
-      <c r="L25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="2:13" ht="54">
@@ -2371,11 +2455,15 @@
         <v>17</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K26" s="3">
         <v>45469</v>
       </c>
-      <c r="L26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13" ht="36">
@@ -2398,11 +2486,15 @@
         <v>17</v>
       </c>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K27" s="3">
         <v>45469</v>
       </c>
-      <c r="L27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:13" ht="36">
@@ -2425,11 +2517,15 @@
         <v>17</v>
       </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K28" s="3">
         <v>45469</v>
       </c>
-      <c r="L28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="2:13" ht="36">
@@ -2452,11 +2548,15 @@
         <v>17</v>
       </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K29" s="3">
         <v>45469</v>
       </c>
-      <c r="L29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="2:13" ht="36">
@@ -2481,11 +2581,15 @@
         <v>17</v>
       </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K30" s="3">
         <v>45469</v>
       </c>
-      <c r="L30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="2:13" ht="36">
@@ -2508,11 +2612,15 @@
         <v>17</v>
       </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K31" s="3">
         <v>45469</v>
       </c>
-      <c r="L31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="2:13">
@@ -2532,12 +2640,18 @@
         <v>16</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32" s="3">
+        <v>45469</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="2:13" ht="36">
@@ -2556,13 +2670,19 @@
       <c r="G33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K33" s="3">
         <v>45469</v>
       </c>
-      <c r="L33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="2:13" ht="54">
@@ -2581,13 +2701,19 @@
       <c r="G34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K34" s="3">
         <v>45469</v>
       </c>
-      <c r="L34" s="1"/>
+      <c r="L34" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="2:13">
@@ -2610,11 +2736,15 @@
         <v>17</v>
       </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K35" s="3">
         <v>45469</v>
       </c>
-      <c r="L35" s="1"/>
+      <c r="L35" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="2:13">
@@ -2634,14 +2764,18 @@
         <v>16</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K36" s="3">
         <v>45469</v>
       </c>
-      <c r="L36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="2:13">
@@ -2650,14 +2784,14 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>16</v>
@@ -2666,11 +2800,15 @@
         <v>17</v>
       </c>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K37" s="3">
         <v>45469</v>
       </c>
-      <c r="L37" s="1"/>
+      <c r="L37" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="2:13">
@@ -2684,7 +2822,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>16</v>
@@ -2693,11 +2831,15 @@
         <v>17</v>
       </c>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K38" s="3">
         <v>45469</v>
       </c>
-      <c r="L38" s="1"/>
+      <c r="L38" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="2:13">
@@ -2711,7 +2853,7 @@
         <v>14</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>16</v>
@@ -2720,11 +2862,15 @@
         <v>17</v>
       </c>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K39" s="3">
         <v>45469</v>
       </c>
-      <c r="L39" s="1"/>
+      <c r="L39" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="2:13">
@@ -2738,20 +2884,24 @@
         <v>14</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="H40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K40" s="3">
         <v>45469</v>
       </c>
-      <c r="L40" s="1"/>
+      <c r="L40" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="2:13" ht="36">
@@ -2765,7 +2915,7 @@
         <v>14</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>16</v>
@@ -2774,11 +2924,15 @@
         <v>17</v>
       </c>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K41" s="3">
         <v>45469</v>
       </c>
-      <c r="L41" s="1"/>
+      <c r="L41" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="2:13" ht="36">
@@ -2792,7 +2946,7 @@
         <v>14</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>16</v>
@@ -2801,11 +2955,15 @@
         <v>17</v>
       </c>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="J42" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K42" s="3">
         <v>45469</v>
       </c>
-      <c r="L42" s="1"/>
+      <c r="L42" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="2:13">
@@ -2814,14 +2972,14 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>16</v>
@@ -2830,11 +2988,15 @@
         <v>17</v>
       </c>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="J43" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K43" s="3">
         <v>45469</v>
       </c>
-      <c r="L43" s="1"/>
+      <c r="L43" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="2:13">
@@ -2848,7 +3010,7 @@
         <v>14</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>16</v>
@@ -2857,11 +3019,15 @@
         <v>17</v>
       </c>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="J44" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K44" s="3">
         <v>45469</v>
       </c>
-      <c r="L44" s="1"/>
+      <c r="L44" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="2:13">
@@ -2875,7 +3041,7 @@
         <v>14</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>16</v>
@@ -2884,11 +3050,15 @@
         <v>17</v>
       </c>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="J45" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K45" s="3">
         <v>45469</v>
       </c>
-      <c r="L45" s="1"/>
+      <c r="L45" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="2:13">
@@ -2902,20 +3072,24 @@
         <v>14</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="H46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="J46" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K46" s="3">
         <v>45469</v>
       </c>
-      <c r="L46" s="1"/>
+      <c r="L46" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M46" s="2"/>
     </row>
     <row r="47" spans="2:13" ht="35.4" customHeight="1">
@@ -2929,7 +3103,7 @@
         <v>14</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>16</v>
@@ -2938,11 +3112,15 @@
         <v>17</v>
       </c>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="J47" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K47" s="3">
         <v>45469</v>
       </c>
-      <c r="L47" s="1"/>
+      <c r="L47" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M47" s="2"/>
     </row>
     <row r="48" spans="2:13">
@@ -2956,7 +3134,7 @@
         <v>14</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>16</v>
@@ -2965,11 +3143,15 @@
         <v>17</v>
       </c>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="J48" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K48" s="3">
         <v>45469</v>
       </c>
-      <c r="L48" s="1"/>
+      <c r="L48" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M48" s="2"/>
     </row>
     <row r="49" spans="2:13">
@@ -2983,7 +3165,7 @@
         <v>14</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>16</v>
@@ -2992,11 +3174,15 @@
         <v>17</v>
       </c>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="J49" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K49" s="3">
         <v>45469</v>
       </c>
-      <c r="L49" s="1"/>
+      <c r="L49" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M49" s="1"/>
     </row>
     <row r="50" spans="2:13">
@@ -3010,7 +3196,7 @@
         <v>14</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>16</v>
@@ -3019,11 +3205,15 @@
         <v>17</v>
       </c>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="J50" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K50" s="3">
         <v>45469</v>
       </c>
-      <c r="L50" s="1"/>
+      <c r="L50" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M50" s="1"/>
     </row>
     <row r="51" spans="2:13">
@@ -3037,7 +3227,7 @@
         <v>14</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>16</v>
@@ -3046,11 +3236,15 @@
         <v>17</v>
       </c>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="J51" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K51" s="3">
         <v>45469</v>
       </c>
-      <c r="L51" s="1"/>
+      <c r="L51" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M51" s="1"/>
     </row>
     <row r="52" spans="2:13">
@@ -3064,7 +3258,7 @@
         <v>14</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>16</v>
@@ -3073,11 +3267,15 @@
         <v>17</v>
       </c>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="J52" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K52" s="3">
         <v>45469</v>
       </c>
-      <c r="L52" s="1"/>
+      <c r="L52" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M52" s="1"/>
     </row>
     <row r="53" spans="2:13">
@@ -3091,7 +3289,7 @@
         <v>14</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>16</v>
@@ -3100,11 +3298,15 @@
         <v>17</v>
       </c>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="J53" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K53" s="3">
         <v>45469</v>
       </c>
-      <c r="L53" s="1"/>
+      <c r="L53" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M53" s="1"/>
     </row>
     <row r="54" spans="2:13" ht="36">
@@ -3118,20 +3320,24 @@
         <v>14</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="H54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="J54" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K54" s="3">
         <v>45469</v>
       </c>
-      <c r="L54" s="1"/>
+      <c r="L54" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M54" s="1"/>
     </row>
     <row r="55" spans="2:13" ht="36">
@@ -3145,7 +3351,7 @@
         <v>14</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>16</v>
@@ -3154,11 +3360,15 @@
         <v>17</v>
       </c>
       <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="J55" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K55" s="3">
         <v>45469</v>
       </c>
-      <c r="L55" s="1"/>
+      <c r="L55" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M55" s="1"/>
     </row>
     <row r="56" spans="2:13">
@@ -3167,27 +3377,31 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="J56" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K56" s="3">
         <v>45469</v>
       </c>
-      <c r="L56" s="1"/>
+      <c r="L56" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M56" s="1"/>
     </row>
     <row r="57" spans="2:13">
@@ -3196,17 +3410,17 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="G57" s="1" t="s">
         <v>16</v>
       </c>
@@ -3214,11 +3428,15 @@
         <v>17</v>
       </c>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="J57" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K57" s="3">
         <v>45469</v>
       </c>
-      <c r="L57" s="1"/>
+      <c r="L57" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M57" s="1"/>
     </row>
     <row r="58" spans="2:13">
@@ -3232,7 +3450,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>16</v>
@@ -3241,11 +3459,15 @@
         <v>17</v>
       </c>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="J58" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K58" s="3">
         <v>45469</v>
       </c>
-      <c r="L58" s="1"/>
+      <c r="L58" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M58" s="1"/>
     </row>
     <row r="59" spans="2:13">
@@ -3259,7 +3481,7 @@
         <v>14</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>53</v>
@@ -3268,11 +3490,15 @@
         <v>17</v>
       </c>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="J59" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K59" s="3">
         <v>45469</v>
       </c>
-      <c r="L59" s="1"/>
+      <c r="L59" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M59" s="1"/>
     </row>
     <row r="60" spans="2:13">
@@ -3286,7 +3512,7 @@
         <v>14</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>16</v>
@@ -3295,11 +3521,15 @@
         <v>17</v>
       </c>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="J60" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K60" s="3">
         <v>45469</v>
       </c>
-      <c r="L60" s="1"/>
+      <c r="L60" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M60" s="1"/>
     </row>
     <row r="61" spans="2:13">
@@ -3313,7 +3543,7 @@
         <v>14</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>53</v>
@@ -3322,11 +3552,15 @@
         <v>17</v>
       </c>
       <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="J61" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K61" s="3">
         <v>45469</v>
       </c>
-      <c r="L61" s="1"/>
+      <c r="L61" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M61" s="1"/>
     </row>
     <row r="62" spans="2:13">
@@ -3336,26 +3570,30 @@
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="H62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="J62" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K62" s="3">
         <v>45469</v>
       </c>
-      <c r="L62" s="1"/>
+      <c r="L62" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M62" s="1"/>
     </row>
     <row r="63" spans="2:13">
@@ -3369,20 +3607,24 @@
         <v>14</v>
       </c>
       <c r="F63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="H63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="J63" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K63" s="3">
         <v>45469</v>
       </c>
-      <c r="L63" s="1"/>
+      <c r="L63" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M63" s="1"/>
     </row>
     <row r="64" spans="2:13">
@@ -3409,12 +3651,8 @@
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="2"/>
       <c r="G65" s="1"/>
       <c r="H65" s="2"/>
       <c r="I65" s="1"/>
@@ -3430,28 +3668,32 @@
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="H66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="J66" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K66" s="3">
         <v>45470</v>
       </c>
-      <c r="L66" s="1"/>
+      <c r="L66" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="2:13">
@@ -3465,20 +3707,24 @@
         <v>14</v>
       </c>
       <c r="F67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="H67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="J67" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K67" s="3">
         <v>45470</v>
       </c>
-      <c r="L67" s="1"/>
+      <c r="L67" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M67" s="1"/>
     </row>
     <row r="68" spans="2:13">
@@ -3492,20 +3738,24 @@
         <v>14</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="J68" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K68" s="3">
         <v>45470</v>
       </c>
-      <c r="L68" s="1"/>
+      <c r="L68" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="2:13">
@@ -3519,20 +3769,24 @@
         <v>14</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="J69" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K69" s="3">
         <v>45470</v>
       </c>
-      <c r="L69" s="1"/>
+      <c r="L69" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M69" s="1"/>
     </row>
     <row r="70" spans="2:13">
@@ -3541,17 +3795,17 @@
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="G70" s="1" t="s">
         <v>16</v>
       </c>
@@ -3559,11 +3813,15 @@
         <v>17</v>
       </c>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="J70" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K70" s="3">
         <v>45470</v>
       </c>
-      <c r="L70" s="1"/>
+      <c r="L70" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M70" s="1"/>
     </row>
     <row r="71" spans="2:13">
@@ -3577,7 +3835,7 @@
         <v>14</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>16</v>
@@ -3586,11 +3844,15 @@
         <v>17</v>
       </c>
       <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="J71" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K71" s="3">
         <v>45470</v>
       </c>
-      <c r="L71" s="1"/>
+      <c r="L71" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M71" s="1"/>
     </row>
     <row r="72" spans="2:13">
@@ -3604,7 +3866,7 @@
         <v>14</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>53</v>
@@ -3613,11 +3875,15 @@
         <v>17</v>
       </c>
       <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="J72" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K72" s="3">
         <v>45470</v>
       </c>
-      <c r="L72" s="1"/>
+      <c r="L72" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M72" s="1"/>
     </row>
     <row r="73" spans="2:13">
@@ -3631,7 +3897,7 @@
         <v>14</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>53</v>
@@ -3640,11 +3906,15 @@
         <v>17</v>
       </c>
       <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="J73" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K73" s="3">
         <v>45470</v>
       </c>
-      <c r="L73" s="1"/>
+      <c r="L73" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M73" s="1"/>
     </row>
     <row r="74" spans="2:13">
@@ -3658,7 +3928,7 @@
         <v>14</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>53</v>
@@ -3667,11 +3937,15 @@
         <v>17</v>
       </c>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="J74" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K74" s="3">
         <v>45470</v>
       </c>
-      <c r="L74" s="1"/>
+      <c r="L74" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M74" s="1"/>
     </row>
     <row r="75" spans="2:13">
@@ -3685,7 +3959,7 @@
         <v>14</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>16</v>
@@ -3694,11 +3968,15 @@
         <v>17</v>
       </c>
       <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="J75" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K75" s="3">
         <v>45470</v>
       </c>
-      <c r="L75" s="1"/>
+      <c r="L75" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M75" s="1"/>
     </row>
     <row r="76" spans="2:13">
@@ -3708,26 +3986,30 @@
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="H76" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="J76" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K76" s="3">
         <v>45470</v>
       </c>
-      <c r="L76" s="1"/>
+      <c r="L76" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M76" s="1"/>
     </row>
     <row r="77" spans="2:13">
@@ -3741,20 +4023,24 @@
         <v>14</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="J77" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K77" s="3">
         <v>45470</v>
       </c>
-      <c r="L77" s="1"/>
+      <c r="L77" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M77" s="1"/>
     </row>
     <row r="78" spans="2:13">
@@ -3768,20 +4054,24 @@
         <v>14</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
+      <c r="J78" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K78" s="3">
         <v>45470</v>
       </c>
-      <c r="L78" s="1"/>
+      <c r="L78" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M78" s="1"/>
     </row>
     <row r="79" spans="2:13">
@@ -3858,26 +4148,30 @@
         <v>81</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="H83" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
+      <c r="J83" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K83" s="3">
         <v>45470</v>
       </c>
-      <c r="L83" s="1"/>
+      <c r="L83" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M83" s="1"/>
     </row>
     <row r="84" spans="2:13">
@@ -3891,20 +4185,24 @@
         <v>14</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
+      <c r="J84" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K84" s="3">
         <v>45470</v>
       </c>
-      <c r="L84" s="1"/>
+      <c r="L84" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M84" s="1"/>
     </row>
     <row r="85" spans="2:13">
@@ -3918,20 +4216,24 @@
         <v>14</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
+      <c r="J85" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K85" s="3">
         <v>45470</v>
       </c>
-      <c r="L85" s="1"/>
+      <c r="L85" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M85" s="1"/>
     </row>
     <row r="86" spans="2:13">
@@ -3991,29 +4293,33 @@
         <v>87</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D89" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
+      <c r="J89" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K89" s="3">
         <v>45470</v>
       </c>
-      <c r="L89" s="1"/>
+      <c r="L89" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M89" s="1"/>
     </row>
     <row r="90" spans="2:13">
@@ -4027,20 +4333,24 @@
         <v>14</v>
       </c>
       <c r="F90" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="H90" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
+      <c r="J90" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K90" s="3">
         <v>45470</v>
       </c>
-      <c r="L90" s="1"/>
+      <c r="L90" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M90" s="1"/>
     </row>
     <row r="91" spans="2:13">
@@ -4054,20 +4364,24 @@
         <v>14</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
+      <c r="J91" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K91" s="3">
         <v>45470</v>
       </c>
-      <c r="L91" s="1"/>
+      <c r="L91" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M91" s="1"/>
     </row>
     <row r="92" spans="2:13">
@@ -4077,26 +4391,30 @@
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="H92" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
+      <c r="J92" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K92" s="3">
         <v>45470</v>
       </c>
-      <c r="L92" s="1"/>
+      <c r="L92" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M92" s="1"/>
     </row>
     <row r="93" spans="2:13">
@@ -4110,20 +4428,24 @@
         <v>14</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
+      <c r="J93" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K93" s="3">
         <v>45470</v>
       </c>
-      <c r="L93" s="1"/>
+      <c r="L93" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M93" s="1"/>
     </row>
     <row r="94" spans="2:13">
@@ -4137,20 +4459,24 @@
         <v>14</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
+      <c r="J94" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K94" s="3">
         <v>45470</v>
       </c>
-      <c r="L94" s="1"/>
+      <c r="L94" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M94" s="1"/>
     </row>
     <row r="95" spans="2:13">
@@ -4160,26 +4486,30 @@
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
+      <c r="J95" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K95" s="3">
         <v>45470</v>
       </c>
-      <c r="L95" s="1"/>
+      <c r="L95" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M95" s="1"/>
     </row>
     <row r="96" spans="2:13">
@@ -4193,20 +4523,24 @@
         <v>14</v>
       </c>
       <c r="F96" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="H96" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
+      <c r="J96" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K96" s="3">
         <v>45470</v>
       </c>
-      <c r="L96" s="1"/>
+      <c r="L96" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M96" s="1"/>
     </row>
     <row r="97" spans="2:13">
@@ -4220,20 +4554,24 @@
         <v>14</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
+      <c r="J97" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K97" s="3">
         <v>45470</v>
       </c>
-      <c r="L97" s="1"/>
+      <c r="L97" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M97" s="1"/>
     </row>
     <row r="98" spans="2:13">
@@ -4243,26 +4581,30 @@
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
+      <c r="J98" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K98" s="3">
         <v>45470</v>
       </c>
-      <c r="L98" s="1"/>
+      <c r="L98" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M98" s="1"/>
     </row>
     <row r="99" spans="2:13">
@@ -4272,26 +4614,30 @@
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="H99" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
+      <c r="J99" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K99" s="3">
         <v>45470</v>
       </c>
-      <c r="L99" s="1"/>
+      <c r="L99" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M99" s="1"/>
     </row>
     <row r="100" spans="2:13">
@@ -4301,26 +4647,30 @@
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="H100" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
+      <c r="J100" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K100" s="3">
         <v>45470</v>
       </c>
-      <c r="L100" s="1"/>
+      <c r="L100" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="M100" s="1"/>
     </row>
     <row r="101" spans="2:13">
